--- a/08-cvicenie/ulohy/test/data/Students.xlsx
+++ b/08-cvicenie/ulohy/test/data/Students.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/_WORK/FIIT/2019-javascript/08-cvicenie/ulohy/test/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\OneDrive - Slovenská technická univerzita v Bratislave\FIIT\5. semester\VAVJS\wawjs\08-cvicenie\ulohy\test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5761C07-08FF-A345-BFB3-F7A89E289F0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="41000" windowHeight="25260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1237,12 +1237,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1379,69 +1387,69 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hypertextové prepojenie" xfId="1" builtinId="8"/>
+    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1722,87 +1730,87 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="39.1640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="39.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="41" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.1640625" style="5"/>
-    <col min="9" max="9" width="9.1640625" style="2"/>
-    <col min="10" max="10" width="9.1640625" style="5"/>
-    <col min="11" max="11" width="9.1640625" style="3"/>
-    <col min="12" max="12" width="9.1640625" style="5"/>
-    <col min="13" max="13" width="9.1640625" style="3"/>
+    <col min="7" max="8" width="9.109375" style="5"/>
+    <col min="9" max="9" width="9.109375" style="2"/>
+    <col min="10" max="10" width="9.109375" style="5"/>
+    <col min="11" max="11" width="9.109375" style="3"/>
+    <col min="12" max="12" width="9.109375" style="5"/>
+    <col min="13" max="13" width="9.109375" style="3"/>
     <col min="14" max="14" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.1640625" style="3"/>
+    <col min="15" max="15" width="9.109375" style="3"/>
     <col min="16" max="16" width="6" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.6640625" style="3" customWidth="1"/>
-    <col min="19" max="16384" width="9.1640625" style="1"/>
+    <col min="19" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="24" customFormat="1" ht="43">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:19" s="23" customFormat="1" ht="39">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="R1" s="25"/>
-      <c r="S1" s="24" t="s">
+      <c r="R1" s="24"/>
+      <c r="S1" s="23" t="s">
         <v>182</v>
       </c>
     </row>
@@ -1856,7 +1864,7 @@
       <c r="Q2" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="R2" s="26"/>
+      <c r="R2" s="25"/>
       <c r="S2" s="1">
         <f>G2+H2+J2+L2+P2+N2</f>
         <v>28</v>
@@ -1910,7 +1918,7 @@
       <c r="Q3" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="R3" s="26"/>
+      <c r="R3" s="25"/>
       <c r="S3" s="1">
         <f t="shared" ref="S3:S39" si="0">G3+H3+J3+L3+P3+N3</f>
         <v>25</v>
@@ -1968,7 +1976,7 @@
       <c r="Q4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="26"/>
+      <c r="R4" s="25"/>
       <c r="S4" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2024,7 +2032,7 @@
       <c r="Q5" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="R5" s="26"/>
+      <c r="R5" s="25"/>
       <c r="S5" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2080,7 +2088,7 @@
       <c r="Q6" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="R6" s="27"/>
+      <c r="R6" s="26"/>
       <c r="S6" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2130,7 +2138,7 @@
       <c r="Q7" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="R7" s="26"/>
+      <c r="R7" s="25"/>
       <c r="S7" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2184,7 +2192,7 @@
       <c r="Q8" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="R8" s="26"/>
+      <c r="R8" s="25"/>
       <c r="S8" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2240,7 +2248,7 @@
       <c r="Q9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="R9" s="26"/>
+      <c r="R9" s="25"/>
       <c r="S9" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2296,7 +2304,7 @@
       <c r="Q10" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="R10" s="26"/>
+      <c r="R10" s="25"/>
       <c r="S10" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2352,7 +2360,7 @@
       <c r="Q11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="26"/>
+      <c r="R11" s="25"/>
       <c r="S11" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2408,7 +2416,7 @@
       <c r="Q12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="R12" s="26"/>
+      <c r="R12" s="25"/>
       <c r="S12" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2462,7 +2470,7 @@
       <c r="Q13" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="R13" s="26"/>
+      <c r="R13" s="25"/>
       <c r="S13" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2518,7 +2526,7 @@
       <c r="Q14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="R14" s="26"/>
+      <c r="R14" s="25"/>
       <c r="S14" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2570,7 +2578,7 @@
       <c r="Q15" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="R15" s="26"/>
+      <c r="R15" s="25"/>
       <c r="S15" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2626,7 +2634,7 @@
       <c r="Q16" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="R16" s="26"/>
+      <c r="R16" s="25"/>
       <c r="S16" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2682,7 +2690,7 @@
       <c r="Q17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="R17" s="26"/>
+      <c r="R17" s="25"/>
       <c r="S17" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2738,7 +2746,7 @@
       <c r="Q18" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="R18" s="26"/>
+      <c r="R18" s="25"/>
       <c r="S18" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2794,7 +2802,7 @@
       <c r="Q19" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="R19" s="27"/>
+      <c r="R19" s="26"/>
       <c r="S19" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2850,7 +2858,7 @@
       <c r="Q20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="R20" s="26"/>
+      <c r="R20" s="25"/>
       <c r="S20" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2906,7 +2914,7 @@
       <c r="Q21" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="R21" s="26"/>
+      <c r="R21" s="25"/>
       <c r="S21" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2962,7 +2970,7 @@
       <c r="Q22" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R22" s="26"/>
+      <c r="R22" s="25"/>
       <c r="S22" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3014,7 +3022,7 @@
       <c r="Q23" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="R23" s="26"/>
+      <c r="R23" s="25"/>
       <c r="S23" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3066,7 +3074,7 @@
       <c r="Q24" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="R24" s="26"/>
+      <c r="R24" s="25"/>
       <c r="S24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3120,7 +3128,7 @@
       <c r="Q25" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="R25" s="26"/>
+      <c r="R25" s="25"/>
       <c r="S25" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3140,7 +3148,7 @@
         <v>70</v>
       </c>
       <c r="E26" s="7"/>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="27" t="s">
         <v>71</v>
       </c>
       <c r="G26" s="8">
@@ -3176,7 +3184,7 @@
       <c r="Q26" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="R26" s="26"/>
+      <c r="R26" s="25"/>
       <c r="S26" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3230,7 +3238,7 @@
       <c r="Q27" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="R27" s="26"/>
+      <c r="R27" s="25"/>
       <c r="S27" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3288,7 +3296,7 @@
       <c r="Q28" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="R28" s="26"/>
+      <c r="R28" s="25"/>
       <c r="S28" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3308,7 +3316,7 @@
         <v>72</v>
       </c>
       <c r="E29" s="7"/>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="16" t="s">
         <v>73</v>
       </c>
       <c r="G29" s="8">
@@ -3344,7 +3352,7 @@
       <c r="Q29" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R29" s="26"/>
+      <c r="R29" s="25"/>
       <c r="S29" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3394,7 +3402,7 @@
       </c>
       <c r="P30" s="8"/>
       <c r="Q30" s="10"/>
-      <c r="R30" s="26"/>
+      <c r="R30" s="25"/>
       <c r="S30" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3450,7 +3458,7 @@
       <c r="Q31" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="R31" s="26"/>
+      <c r="R31" s="25"/>
       <c r="S31" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3470,7 +3478,7 @@
         <v>76</v>
       </c>
       <c r="E32" s="7"/>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="17" t="s">
         <v>77</v>
       </c>
       <c r="G32" s="8">
@@ -3506,7 +3514,7 @@
       <c r="Q32" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="R32" s="26"/>
+      <c r="R32" s="25"/>
       <c r="S32" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3562,7 +3570,7 @@
       <c r="Q33" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="R33" s="26"/>
+      <c r="R33" s="25"/>
       <c r="S33" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3618,7 +3626,7 @@
       <c r="Q34" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="R34" s="26"/>
+      <c r="R34" s="25"/>
       <c r="S34" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3676,7 +3684,7 @@
       <c r="Q35" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="R35" s="26"/>
+      <c r="R35" s="25"/>
       <c r="S35" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3732,7 +3740,7 @@
       <c r="Q36" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="R36" s="26"/>
+      <c r="R36" s="25"/>
       <c r="S36" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3788,7 +3796,7 @@
       <c r="Q37" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="R37" s="26"/>
+      <c r="R37" s="25"/>
       <c r="S37" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3844,7 +3852,7 @@
       <c r="Q38" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="R38" s="26"/>
+      <c r="R38" s="25"/>
       <c r="S38" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3864,7 +3872,7 @@
         <v>84</v>
       </c>
       <c r="E39" s="7"/>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="18" t="s">
         <v>85</v>
       </c>
       <c r="G39" s="8">
@@ -3896,7 +3904,7 @@
       <c r="Q39" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="R39" s="26"/>
+      <c r="R39" s="25"/>
       <c r="S39" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3904,7 +3912,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O39" xr:uid="{C14EA6EF-7DD6-C142-A002-044B4DCF14E7}"/>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D21" r:id="rId1" xr:uid="{D4FD9FA2-14DE-3747-B110-087503546F0F}"/>
     <hyperlink ref="D25" r:id="rId2" xr:uid="{710C2038-407A-7047-95F8-BE36BC16E088}"/>
